--- a/codebook_ver1_ds103.xlsx
+++ b/codebook_ver1_ds103.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\PC\DS103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E998CB-7E8F-49CA-9C56-B9A9DAD4434F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7676D4-23B9-4243-BE0A-591AA86ED22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -460,7 +460,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,15 +486,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +824,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -836,97 +836,103 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="10">
+        <v>308</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="10">
+        <v>313</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>6</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1688</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10">
-        <v>319242</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="23">
-        <v>78</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23" t="s">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3878</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="9">
-        <v>319242</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10">
-        <v>3878</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10"/>
+      <c r="G6" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -947,177 +953,171 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1688</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="A8" s="11">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="11">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9">
-        <v>95153</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>92</v>
-      </c>
+      <c r="A9" s="10">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="12">
-        <v>856</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>92</v>
-      </c>
+      <c r="A10" s="10">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="10">
-        <v>568</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10"/>
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="9">
+        <v>319242</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="A12" s="9">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E12" s="10">
-        <v>0</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="17">
-        <v>9</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D14" s="10">
-        <v>313</v>
+        <v>319242</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="14">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="s">
+    <row r="15" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9">
+        <v>95153</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>95</v>
-      </c>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D16" s="10">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10">
         <v>0</v>
@@ -1125,298 +1125,319 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
-        <v>15</v>
+      <c r="A17" s="13">
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D17" s="10">
-        <v>23736</v>
+        <v>2</v>
       </c>
       <c r="E17" s="10">
         <v>0</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12">
+      <c r="A18" s="10">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="10">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22">
+        <v>1</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="22">
+        <v>78</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>13</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9">
+        <v>119</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D22" s="11">
         <v>7</v>
       </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="E22" s="11">
+        <v>0</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="9">
-        <v>249077</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
-        <v>19</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="10">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="10">
-        <v>3</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>46</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>17</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="9">
+        <v>249077</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D26" s="10">
         <v>23844</v>
       </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>43</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="9">
+        <v>459</v>
+      </c>
+      <c r="E27" s="9">
+        <v>99.86</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>41</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="9">
+        <v>60</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="20">
-        <v>369</v>
-      </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="20" t="s">
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="10">
+        <v>568</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="9">
+        <v>213621</v>
+      </c>
+      <c r="E30" s="9">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>25</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="11">
+        <v>21</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1.64</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12">
-        <v>24</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="12">
-        <v>10</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>25</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="12">
-        <v>21</v>
-      </c>
-      <c r="E27" s="16">
-        <v>1.64</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="10">
-        <v>213621</v>
-      </c>
-      <c r="E28" s="16">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="9">
-        <v>119</v>
-      </c>
-      <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="10">
-        <v>7739</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="10">
-        <v>5</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D32" s="10">
-        <v>2</v>
+        <v>313</v>
       </c>
       <c r="E32" s="10">
         <v>0</v>
@@ -1425,16 +1446,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
+        <v>37</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="10">
         <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2</v>
       </c>
       <c r="E33" s="10">
         <v>0</v>
@@ -1443,34 +1464,35 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D34" s="10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E34" s="10">
         <v>0</v>
       </c>
       <c r="F34" s="10"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
-        <v>33</v>
+      <c r="A35" s="13">
+        <v>44</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D35" s="10">
-        <v>308</v>
+        <v>42275</v>
       </c>
       <c r="E35" s="10">
         <v>0</v>
@@ -1478,35 +1500,38 @@
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="10">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="10">
-        <v>54</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10"/>
+      <c r="A36" s="9">
+        <v>42</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="9">
+        <v>11857</v>
+      </c>
+      <c r="E36" s="9">
+        <v>96.28</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D37" s="10">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="E37" s="10">
         <v>0</v>
@@ -1514,53 +1539,55 @@
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9">
-        <v>0</v>
-      </c>
-      <c r="F38" s="9"/>
+      <c r="A38" s="10">
+        <v>32</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D39" s="10">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="E39" s="10">
         <v>0</v>
       </c>
       <c r="F39" s="10"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D40" s="10">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="E40" s="10">
         <v>0</v>
@@ -1569,13 +1596,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D41" s="10">
         <v>2</v>
@@ -1585,165 +1612,172 @@
       </c>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D42" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="9">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
-        <v>41</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="27">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>15</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="10">
+        <v>23736</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="10">
+        <v>5</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>8</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="11">
+        <v>856</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>29</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="27">
-        <v>0</v>
-      </c>
-      <c r="F43" s="27" t="s">
+      <c r="D46" s="10">
+        <v>5</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
+        <v>22</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="19">
+        <v>369</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0</v>
+      </c>
+      <c r="F47" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="9">
-        <v>11857</v>
-      </c>
-      <c r="E44" s="9">
-        <v>96.28</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="G47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>28</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="10">
+        <v>7739</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="31"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>40</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="11">
+        <v>2</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="9">
-        <v>43</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="9">
-        <v>459</v>
-      </c>
-      <c r="E45" s="9">
-        <v>99.86</v>
-      </c>
-      <c r="F45" s="9"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="10">
-        <v>42275</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="10">
-        <v>5</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="9">
-        <v>46</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="9">
-        <v>1</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
-        <v>47</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D49" s="10">
-        <v>2</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G51">
+    <sortCondition ref="B20:B51"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/codebook_ver1_ds103.xlsx
+++ b/codebook_ver1_ds103.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\PC\DS103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7676D4-23B9-4243-BE0A-591AA86ED22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762AC997-1D37-44A3-8D0A-8816E424EF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,7 +337,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -491,11 +497,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,7 +842,7 @@
       <c r="A2" s="10">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="30" t="s">
         <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -875,7 +879,7 @@
       <c r="A4" s="11">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -896,7 +900,7 @@
       <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -915,7 +919,7 @@
       <c r="A6" s="16">
         <v>11</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="17" t="s">
@@ -956,7 +960,7 @@
       <c r="A8" s="11">
         <v>24</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -976,7 +980,7 @@
       <c r="A9" s="10">
         <v>23</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -995,7 +999,7 @@
       <c r="A10" s="10">
         <v>31</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1046,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
@@ -1141,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="30"/>
+      <c r="G17" s="28"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>20</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="30" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1210,7 +1214,7 @@
       <c r="A21" s="9">
         <v>27</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1342,13 +1346,13 @@
         <v>99.86</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="29"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>41</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="30" t="s">
         <v>79</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -1371,7 +1375,7 @@
       <c r="A29" s="10">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1390,7 +1394,7 @@
       <c r="A30" s="9">
         <v>26</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="30" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1430,7 +1434,7 @@
       <c r="A32" s="10">
         <v>12</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="30" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1466,7 +1470,7 @@
       <c r="A34" s="10">
         <v>38</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="30" t="s">
         <v>74</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -1479,7 +1483,6 @@
         <v>0</v>
       </c>
       <c r="F34" s="10"/>
-      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
@@ -1518,7 +1521,7 @@
       <c r="F36" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
@@ -1542,7 +1545,7 @@
       <c r="A38" s="10">
         <v>32</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="30" t="s">
         <v>63</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -1574,7 +1577,6 @@
         <v>0</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
@@ -1598,7 +1600,7 @@
       <c r="A41" s="10">
         <v>10</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="30" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1656,7 +1658,7 @@
       <c r="A44" s="13">
         <v>45</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="30" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -1675,7 +1677,7 @@
       <c r="A45" s="11">
         <v>8</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -1690,13 +1692,13 @@
       <c r="F45" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="G45" s="28"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>29</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="30" t="s">
         <v>59</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -1714,7 +1716,7 @@
       <c r="A47" s="19">
         <v>22</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="20" t="s">
@@ -1748,13 +1750,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="10"/>
-      <c r="G48" s="31"/>
+      <c r="G48"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>40</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="12" t="s">
@@ -1775,8 +1777,8 @@
       <c r="A50" s="8"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G51">
-    <sortCondition ref="B20:B51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G50">
+    <sortCondition ref="B9:B50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/codebook_ver1_ds103.xlsx
+++ b/codebook_ver1_ds103.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\PC\DS103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762AC997-1D37-44A3-8D0A-8816E424EF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF24F05-2C7F-4A66-8257-C18CD91481C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/codebook_ver1_ds103.xlsx
+++ b/codebook_ver1_ds103.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\PC\DS103\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF24F05-2C7F-4A66-8257-C18CD91481C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95AF04-165A-4894-B33D-988F7D36C80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="U31" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
